--- a/Extracción de datos/Genetico.xlsx
+++ b/Extracción de datos/Genetico.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\9noSemestre\Computo\Bebidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\9noSemestre\Computo\GeneCocktailCraft\Extracción de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B09903-6397-42DD-A184-0C70B50F6C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6AE25-7AF7-427B-9639-523DAB6059B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0EEE6A6-400E-4248-931B-24B8FFAB0F81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="15600" xr2:uid="{B0EEE6A6-400E-4248-931B-24B8FFAB0F81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ingredientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Recetas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +45,6 @@
     <t xml:space="preserve">Ingredientes </t>
   </si>
   <si>
-    <t xml:space="preserve">Calvel </t>
-  </si>
-  <si>
     <t>Calahua</t>
   </si>
   <si>
@@ -87,6 +85,111 @@
   </si>
   <si>
     <t>Jugo de toroja</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menta </t>
+  </si>
+  <si>
+    <t>Maguie</t>
+  </si>
+  <si>
+    <t>Inglesa</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Tamarindo</t>
+  </si>
+  <si>
+    <t>Garnituras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodaja de limon </t>
+  </si>
+  <si>
+    <t>Rodaja de naranja</t>
+  </si>
+  <si>
+    <t>Ceresa</t>
+  </si>
+  <si>
+    <t>Rodaja de pepino</t>
+  </si>
+  <si>
+    <t>Escarchado de tamarindo</t>
+  </si>
+  <si>
+    <t>Escarchado de mora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escarchado de tajin  </t>
+  </si>
+  <si>
+    <t>Rodaja de piña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomitas </t>
+  </si>
+  <si>
+    <t>Mesclar</t>
+  </si>
+  <si>
+    <t>Licuar</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receta </t>
+  </si>
+  <si>
+    <t>Piña colada</t>
+  </si>
+  <si>
+    <t>Pitufo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fesa colada </t>
+  </si>
+  <si>
+    <t>Cerveza</t>
+  </si>
+  <si>
+    <t>Michelada</t>
+  </si>
+  <si>
+    <t>Cantarito</t>
+  </si>
+  <si>
+    <t>Mojito</t>
+  </si>
+  <si>
+    <t>Limonada</t>
+  </si>
+  <si>
+    <t>Naranjada</t>
+  </si>
+  <si>
+    <t>Squert prep</t>
+  </si>
+  <si>
+    <t>Hielo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clavel </t>
   </si>
 </sst>
 </file>
@@ -102,12 +205,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,14 +243,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -139,6 +273,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,137 +576,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BECAC3-8CFC-4A55-900B-4098EB36BFBE}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>26</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5">
+        <v>26</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>26</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5">
+        <v>21</v>
+      </c>
+      <c r="G20" s="5">
+        <v>22</v>
+      </c>
+      <c r="H20" s="5">
+        <v>23</v>
+      </c>
+      <c r="I20" s="5">
+        <v>13</v>
+      </c>
+      <c r="J20" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>16</v>
+      </c>
+      <c r="I21" s="5">
+        <v>22</v>
+      </c>
+      <c r="J21" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5">
+        <v>13</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>13</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E16:J16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A27">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE52CB7-FA2C-463B-BB99-A6365411383B}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>